--- a/Phenoloxidase Activity data/Data for 150 samples/09. Phenoloxidase 31-07-24 (New)(AEG -48, HEG -4, 7-13).xlsx
+++ b/Phenoloxidase Activity data/Data for 150 samples/09. Phenoloxidase 31-07-24 (New)(AEG -48, HEG -4, 7-13).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\Data for 150 samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\Data for 150 samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Original data" sheetId="2" r:id="rId1"/>
@@ -1025,11 +1025,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241292064"/>
-        <c:axId val="12569672"/>
+        <c:axId val="304375376"/>
+        <c:axId val="304368712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241292064"/>
+        <c:axId val="304375376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,12 +1086,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12569672"/>
+        <c:crossAx val="304368712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12569672"/>
+        <c:axId val="304368712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,7 +1148,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241292064"/>
+        <c:crossAx val="304375376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1380,11 +1380,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239845696"/>
-        <c:axId val="239842168"/>
+        <c:axId val="306296264"/>
+        <c:axId val="306296656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239845696"/>
+        <c:axId val="306296264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,12 +1441,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239842168"/>
+        <c:crossAx val="306296656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239842168"/>
+        <c:axId val="306296656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239845696"/>
+        <c:crossAx val="306296264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1753,11 +1753,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284691232"/>
-        <c:axId val="284690448"/>
+        <c:axId val="306297048"/>
+        <c:axId val="306297440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284691232"/>
+        <c:axId val="306297048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,12 +1814,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284690448"/>
+        <c:crossAx val="306297440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284690448"/>
+        <c:axId val="306297440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,7 +1876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284691232"/>
+        <c:crossAx val="306297048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1940,7 +1940,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2015,7 +2014,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2128,11 +2126,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241119672"/>
-        <c:axId val="241120056"/>
+        <c:axId val="305744760"/>
+        <c:axId val="305745544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241119672"/>
+        <c:axId val="305744760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2189,12 +2187,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241120056"/>
+        <c:crossAx val="305745544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241120056"/>
+        <c:axId val="305745544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,7 +2249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241119672"/>
+        <c:crossAx val="305744760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2315,7 +2313,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2390,7 +2387,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2503,11 +2499,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241142232"/>
-        <c:axId val="241142616"/>
+        <c:axId val="305746328"/>
+        <c:axId val="305739272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241142232"/>
+        <c:axId val="305746328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2564,12 +2560,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241142616"/>
+        <c:crossAx val="305739272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241142616"/>
+        <c:axId val="305739272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,7 +2622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241142232"/>
+        <c:crossAx val="305746328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2690,7 +2686,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2883,11 +2878,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241126768"/>
-        <c:axId val="241190264"/>
+        <c:axId val="305742408"/>
+        <c:axId val="305739664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241126768"/>
+        <c:axId val="305742408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2944,12 +2939,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241190264"/>
+        <c:crossAx val="305739664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241190264"/>
+        <c:axId val="305739664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3006,7 +3001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241126768"/>
+        <c:crossAx val="305742408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3070,7 +3065,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3145,7 +3139,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3258,11 +3251,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241219896"/>
-        <c:axId val="241228480"/>
+        <c:axId val="305740840"/>
+        <c:axId val="305740448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241219896"/>
+        <c:axId val="305740840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3319,12 +3312,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241228480"/>
+        <c:crossAx val="305740448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241228480"/>
+        <c:axId val="305740448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3381,7 +3374,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241219896"/>
+        <c:crossAx val="305740840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3645,11 +3638,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239843344"/>
-        <c:axId val="241255560"/>
+        <c:axId val="305740056"/>
+        <c:axId val="305741232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239843344"/>
+        <c:axId val="305740056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3706,12 +3699,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241255560"/>
+        <c:crossAx val="305741232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241255560"/>
+        <c:axId val="305741232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3768,7 +3761,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239843344"/>
+        <c:crossAx val="305740056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3832,6 +3825,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4038,11 +4032,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241253208"/>
-        <c:axId val="241253600"/>
+        <c:axId val="305742016"/>
+        <c:axId val="305742800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241253208"/>
+        <c:axId val="305742016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4099,12 +4093,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241253600"/>
+        <c:crossAx val="305742800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241253600"/>
+        <c:axId val="305742800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4161,7 +4155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241253208"/>
+        <c:crossAx val="305742016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4225,6 +4219,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4299,6 +4294,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4411,11 +4407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241253992"/>
-        <c:axId val="241255168"/>
+        <c:axId val="305743192"/>
+        <c:axId val="305743584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241253992"/>
+        <c:axId val="305743192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4472,12 +4468,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241255168"/>
+        <c:crossAx val="305743584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241255168"/>
+        <c:axId val="305743584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4534,7 +4530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241253992"/>
+        <c:crossAx val="305743192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4598,6 +4594,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4672,6 +4669,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4784,11 +4782,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241254384"/>
-        <c:axId val="241252032"/>
+        <c:axId val="306295480"/>
+        <c:axId val="306295872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241254384"/>
+        <c:axId val="306295480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4845,12 +4843,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241252032"/>
+        <c:crossAx val="306295872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241252032"/>
+        <c:axId val="306295872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4907,7 +4905,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241254384"/>
+        <c:crossAx val="306295480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11677,8 +11675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="K113" activeCellId="1" sqref="A113:I115 K113:K115"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15323,8 +15321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19535,8 +19533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
